--- a/Teamwork/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
+++ b/Teamwork/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\RISC-V\最终检查版本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jsx-doc\大三上\组原课设\HUST-CPU-2022\Teamwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056C180-4454-4C73-AEA3-9F3B030F7E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353BF94-FCCE-4484-93A5-1C3E4CD9EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -1688,18 +1688,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,6 +1724,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2235,7 +2235,7 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2379,106 +2379,106 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="75">
-        <v>0</v>
-      </c>
-      <c r="D2" s="75">
-        <v>0</v>
-      </c>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="71">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71">
+        <v>0</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="73">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,64)/32&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="73">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="73">
         <f t="shared" ref="H2:H35" si="0">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="I2" s="77">
+      <c r="I2" s="73">
         <f t="shared" ref="I2:I35" si="1">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="72">
         <f t="shared" ref="J2:J35" si="2">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="78">
+      <c r="K2" s="74">
         <f t="shared" ref="K2:K35" si="3">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),32)/16&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="78">
+      <c r="L2" s="74">
         <f t="shared" ref="L2:L35" si="4">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),16)/8&gt;=1,1,0))</f>
         <v>1</v>
       </c>
-      <c r="M2" s="78">
+      <c r="M2" s="74">
         <f t="shared" ref="M2:M35" si="5">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),8)/4&gt;=1,1,0))</f>
         <v>1</v>
       </c>
-      <c r="N2" s="78">
+      <c r="N2" s="74">
         <f t="shared" ref="N2:N35" si="6">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),4)/2&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="79">
+      <c r="O2" s="75">
         <f t="shared" ref="O2:O35" si="7">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),2)&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="76">
         <v>5</v>
       </c>
-      <c r="Q2" s="81">
+      <c r="Q2" s="77">
         <f t="shared" ref="Q2:Q35" si="8">IF(ISNUMBER($P2),IF(MOD($P2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="R2" s="81">
+      <c r="R2" s="77">
         <f t="shared" ref="R2:R35" si="9">IF(ISNUMBER($P2),IF(MOD($P2,8)/4&gt;=1,1,0),"X")</f>
         <v>1</v>
       </c>
-      <c r="S2" s="81">
+      <c r="S2" s="77">
         <f t="shared" ref="S2:S35" si="10">IF(ISNUMBER($P2),IF(MOD($P2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="T2" s="81">
+      <c r="T2" s="77">
         <f t="shared" ref="T2:T35" si="11">IF(ISNUMBER($P2),IF(MOD($P2,2)&gt;=1,1,0),"X")</f>
         <v>1</v>
       </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="74">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="57">
@@ -2581,106 +2581,106 @@
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="74">
+    <row r="4" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="70">
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="75">
-        <v>0</v>
-      </c>
-      <c r="D4" s="75">
+      <c r="C4" s="71">
+        <v>0</v>
+      </c>
+      <c r="D4" s="71">
         <v>7</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="73">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="73">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="74">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P4" s="80">
+      <c r="P4" s="76">
         <v>7</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="Q4" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R4" s="81">
+      <c r="R4" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S4" s="81">
+      <c r="S4" s="77">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="T4" s="81">
+      <c r="T4" s="77">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="74">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="57">
@@ -2985,203 +2985,203 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="74">
+    <row r="8" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75">
-        <v>0</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71">
+        <v>0</v>
+      </c>
+      <c r="E8" s="72">
         <v>4</v>
       </c>
-      <c r="F8" s="77" t="str">
+      <c r="F8" s="73" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G8" s="77" t="str">
+      <c r="G8" s="73" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="74">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P8" s="80">
+      <c r="P8" s="76">
         <v>5</v>
       </c>
-      <c r="Q8" s="81">
+      <c r="Q8" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R8" s="81">
+      <c r="R8" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S8" s="81">
+      <c r="S8" s="77">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T8" s="81">
+      <c r="T8" s="77">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74">
-        <v>1</v>
-      </c>
-      <c r="X8" s="74">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70">
+        <v>1</v>
+      </c>
+      <c r="X8" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
     </row>
-    <row r="9" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83">
+    <row r="9" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="79">
         <v>8</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77">
+      <c r="C9" s="71"/>
+      <c r="D9" s="73">
         <v>7</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="72">
         <v>4</v>
       </c>
-      <c r="F9" s="77" t="str">
+      <c r="F9" s="73" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G9" s="77" t="str">
+      <c r="G9" s="73" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="74">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="78">
+      <c r="N9" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="80">
         <v>7</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="Q9" s="81">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R9" s="85">
+      <c r="R9" s="81">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="81">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="T9" s="85">
+      <c r="T9" s="81">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83">
-        <v>1</v>
-      </c>
-      <c r="X9" s="83">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79">
+        <v>1</v>
+      </c>
+      <c r="X9" s="79">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
@@ -3837,22 +3837,24 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39" t="str">
+      <c r="P16" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S16" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S16" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U16" s="31">
         <v>1</v>
@@ -10003,7 +10005,7 @@
       </c>
       <c r="Q16" s="24" t="str">
         <f>IF(真值表!R16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R16" s="24" t="str">
         <f>IF(真值表!S16=1,$O16&amp;"+","")</f>
@@ -10011,7 +10013,7 @@
       </c>
       <c r="S16" s="24" t="str">
         <f>IF(真值表!T16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T16" s="24" t="str">
         <f>IF(真值表!U16=1,$O16&amp;"+","")</f>
@@ -16405,30 +16407,30 @@
       </c>
     </row>
     <row r="58" spans="1:50" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="72"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="85"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
         <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16436,7 +16438,7 @@
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16524,7 +16526,7 @@
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
@@ -16534,7 +16536,7 @@
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16664,20 +16666,20 @@
       </c>
     </row>
     <row r="61" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="P61" s="73" t="s">
+      <c r="P61" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="73"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
-      <c r="Z61" s="73"/>
-      <c r="AA61" s="73"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="86"/>
+      <c r="S61" s="86"/>
+      <c r="T61" s="86"/>
+      <c r="U61" s="86"/>
+      <c r="V61" s="86"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="86"/>
+      <c r="Y61" s="86"/>
+      <c r="Z61" s="86"/>
+      <c r="AA61" s="86"/>
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>

--- a/Teamwork/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
+++ b/Teamwork/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jsx-doc\大三上\组原课设\HUST-CPU-2022\Teamwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\HUST-CPU-2022\Teamwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353BF94-FCCE-4484-93A5-1C3E4CD9EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85928ACE-B55C-4928-B9C1-5F191B7CA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1688,43 +1688,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1737,6 +1700,35 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2234,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2379,106 +2371,106 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70" t="s">
+    <row r="2" spans="1:40" s="74" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="71">
-        <v>0</v>
-      </c>
-      <c r="D2" s="71">
-        <v>0</v>
-      </c>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,64)/32&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="20">
         <f t="shared" ref="H2:H35" si="0">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="20">
         <f t="shared" ref="I2:I35" si="1">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="29">
         <f t="shared" ref="J2:J35" si="2">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="36">
         <f t="shared" ref="K2:K35" si="3">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),32)/16&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="36">
         <f t="shared" ref="L2:L35" si="4">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),16)/8&gt;=1,1,0))</f>
         <v>1</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="36">
         <f t="shared" ref="M2:M35" si="5">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),8)/4&gt;=1,1,0))</f>
         <v>1</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="36">
         <f t="shared" ref="N2:N35" si="6">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),4)/2&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="75">
+      <c r="O2" s="64">
         <f t="shared" ref="O2:O35" si="7">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),2)&gt;=1,1,0))</f>
         <v>0</v>
       </c>
-      <c r="P2" s="76">
+      <c r="P2" s="38">
         <v>5</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="39">
         <f t="shared" ref="Q2:Q35" si="8">IF(ISNUMBER($P2),IF(MOD($P2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="R2" s="77">
+      <c r="R2" s="39">
         <f t="shared" ref="R2:R35" si="9">IF(ISNUMBER($P2),IF(MOD($P2,8)/4&gt;=1,1,0),"X")</f>
         <v>1</v>
       </c>
-      <c r="S2" s="77">
+      <c r="S2" s="39">
         <f t="shared" ref="S2:S35" si="10">IF(ISNUMBER($P2),IF(MOD($P2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="T2" s="77">
+      <c r="T2" s="39">
         <f t="shared" ref="T2:T35" si="11">IF(ISNUMBER($P2),IF(MOD($P2,2)&gt;=1,1,0),"X")</f>
         <v>1</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="74">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="57">
@@ -2581,106 +2573,106 @@
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70">
+    <row r="4" spans="1:40" s="74" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="71">
-        <v>0</v>
-      </c>
-      <c r="D4" s="71">
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
         <v>7</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="36">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P4" s="76">
+      <c r="P4" s="38">
         <v>7</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="39">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="39">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="74">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="57">
@@ -2985,203 +2977,203 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="70">
+    <row r="8" spans="1:40" s="74" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71">
-        <v>0</v>
-      </c>
-      <c r="E8" s="72">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
         <v>4</v>
       </c>
-      <c r="F8" s="73" t="str">
+      <c r="F8" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G8" s="73" t="str">
+      <c r="G8" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="38">
         <v>5</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="39">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70">
-        <v>1</v>
-      </c>
-      <c r="X8" s="70">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31">
+        <v>1</v>
+      </c>
+      <c r="X8" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
     </row>
-    <row r="9" spans="1:40" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="79">
+    <row r="9" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="75">
         <v>8</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73">
+      <c r="C9" s="76"/>
+      <c r="D9" s="77">
         <v>7</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="78">
         <v>4</v>
       </c>
-      <c r="F9" s="73" t="str">
+      <c r="F9" s="77" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G9" s="73" t="str">
+      <c r="G9" s="77" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="77">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="77">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="78">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="79">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="79">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="79">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O9" s="75">
+      <c r="O9" s="80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P9" s="80">
+      <c r="P9" s="81">
         <v>7</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="Q9" s="82">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R9" s="81">
+      <c r="R9" s="82">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S9" s="81">
+      <c r="S9" s="82">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="T9" s="81">
+      <c r="T9" s="82">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79">
-        <v>1</v>
-      </c>
-      <c r="X9" s="79">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75">
+        <v>1</v>
+      </c>
+      <c r="X9" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
@@ -16407,23 +16399,23 @@
       </c>
     </row>
     <row r="58" spans="1:50" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="85"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
         <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
@@ -16666,20 +16658,20 @@
       </c>
     </row>
     <row r="61" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="P61" s="86" t="s">
+      <c r="P61" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Q61" s="86"/>
-      <c r="R61" s="86"/>
-      <c r="S61" s="86"/>
-      <c r="T61" s="86"/>
-      <c r="U61" s="86"/>
-      <c r="V61" s="86"/>
-      <c r="W61" s="86"/>
-      <c r="X61" s="86"/>
-      <c r="Y61" s="86"/>
-      <c r="Z61" s="86"/>
-      <c r="AA61" s="86"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
+      <c r="AA61" s="73"/>
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
